--- a/medicine/Sexualité et sexologie/Sex-ratio_opérationnel/Sex-ratio_opérationnel.xlsx
+++ b/medicine/Sexualité et sexologie/Sex-ratio_opérationnel/Sex-ratio_opérationnel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sex-ratio_op%C3%A9rationnel</t>
+          <t>Sex-ratio_opérationnel</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le sex-ratio opérationnel (ou OSR pour Operating Sex-ratio en anglais) est une mesure chez les espèces sexuées du sex-ratio, c'est-à-dire le taux comparé de mâles et femelles, prenant en compte la fertilité des individus et la disponibilité de ceux-ci pour la reproduction. Il est défini comme le quotient du nombre de femelles sexuellement disponibles sur le nombre de mâles sexuellement disponibles à un moment donné[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le sex-ratio opérationnel (ou OSR pour Operating Sex-ratio en anglais) est une mesure chez les espèces sexuées du sex-ratio, c'est-à-dire le taux comparé de mâles et femelles, prenant en compte la fertilité des individus et la disponibilité de ceux-ci pour la reproduction. Il est défini comme le quotient du nombre de femelles sexuellement disponibles sur le nombre de mâles sexuellement disponibles à un moment donné.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sex-ratio_op%C3%A9rationnel</t>
+          <t>Sex-ratio_opérationnel</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,10 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Le taux potentiel de reproduction
-Le sex-ratio adulte
-La répartition des sexes dans l'espace et le temps
-Le sex-ratio opérationnel peut dépendre de la localisation : par exemple, chez la libellule émeraude, les mâles croisent longtemps sur le lieu de rendez-vous, jusqu'à trouver une partenaire, tandis que les femelles n'y séjournent qu'un minimum de temps. On aboutit ainsi localement à des OSR élevés, pouvant dépasser 90 %, pour une population globalement équilibrée.
+          <t>La répartition des sexes dans l'espace et le temps</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le sex-ratio opérationnel peut dépendre de la localisation : par exemple, chez la libellule émeraude, les mâles croisent longtemps sur le lieu de rendez-vous, jusqu'à trouver une partenaire, tandis que les femelles n'y séjournent qu'un minimum de temps. On aboutit ainsi localement à des OSR élevés, pouvant dépasser 90 %, pour une population globalement équilibrée.
 </t>
         </is>
       </c>
@@ -527,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Sex-ratio_op%C3%A9rationnel</t>
+          <t>Sex-ratio_opérationnel</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,9 +560,11 @@
           <t>Expression formelle</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sutherland[2] exprime de manière formelle le sex-ratio opérationnel (SRO) par la formule suivante:
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sutherland exprime de manière formelle le sex-ratio opérationnel (SRO) par la formule suivante:
         S
         R
         O
@@ -598,7 +615,7 @@
           H
             f
     {\displaystyle H_{f}}
- le temps nécessaire à chaque évènement de reproduction respectivement pour le mâle et la femelle. Ces paramètres dépendent de nombreux facteurs différents, explicités en partie par Clutton-Brock et Parker en 1992[3].
+ le temps nécessaire à chaque évènement de reproduction respectivement pour le mâle et la femelle. Ces paramètres dépendent de nombreux facteurs différents, explicités en partie par Clutton-Brock et Parker en 1992.
 </t>
         </is>
       </c>
@@ -609,7 +626,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Sex-ratio_op%C3%A9rationnel</t>
+          <t>Sex-ratio_opérationnel</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -628,6 +645,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
